--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value395.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value395.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.411910947821302</v>
+        <v>1.699297666549683</v>
       </c>
       <c r="B1">
-        <v>1.511926455935254</v>
+        <v>3.186416387557983</v>
       </c>
       <c r="C1">
-        <v>1.651630941827911</v>
+        <v>2.468589305877686</v>
       </c>
       <c r="D1">
-        <v>2.423011900389713</v>
+        <v>2.288189172744751</v>
       </c>
       <c r="E1">
-        <v>1.992676833414651</v>
+        <v>1.922728180885315</v>
       </c>
     </row>
   </sheetData>
